--- a/downLoadFile/excelFiles/BLUploadFormat.xlsx
+++ b/downLoadFile/excelFiles/BLUploadFormat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\testt\klnet.owner.web\downLoadFile\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>BL NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,205 +42,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MAEU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLTEST0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BKTEST000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARRIER(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNTRTEST000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>I / E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAEU</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLTEST0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BKTEST000012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAEU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLTEST0020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BKTEST000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNTRTEST000102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUBUN(I/E)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARRIER(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNTRTEST000101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNTRTEST000103</t>
-  </si>
-  <si>
-    <t>CNTRTEST000104</t>
-  </si>
-  <si>
-    <t>CNTRTEST000105</t>
-  </si>
-  <si>
-    <t>CNTRTEST000106</t>
-  </si>
-  <si>
-    <t>CNTRTEST000107</t>
-  </si>
-  <si>
-    <t>CNTRTEST000108</t>
-  </si>
-  <si>
-    <t>CNTRTEST000109</t>
-  </si>
-  <si>
-    <t>CNTRTEST000110</t>
-  </si>
-  <si>
-    <t>CNTRTEST000111</t>
-  </si>
-  <si>
-    <t>CNTRTEST000112</t>
-  </si>
-  <si>
-    <t>CNTRTEST000113</t>
-  </si>
-  <si>
-    <t>CNTRTEST000114</t>
-  </si>
-  <si>
-    <t>CNTRTEST000115</t>
-  </si>
-  <si>
-    <t>CNTRTEST000116</t>
-  </si>
-  <si>
-    <t>CNTRTEST000117</t>
-  </si>
-  <si>
-    <t>CNTRTEST000118</t>
-  </si>
-  <si>
-    <t>CNTRTEST000119</t>
-  </si>
-  <si>
-    <t>BKTEST000008</t>
-  </si>
-  <si>
-    <t>BKTEST000018</t>
-  </si>
-  <si>
-    <t>BKTEST000028</t>
-  </si>
-  <si>
-    <t>BKTEST000038</t>
-  </si>
-  <si>
-    <t>BKTEST000048</t>
-  </si>
-  <si>
-    <t>BKTEST000058</t>
-  </si>
-  <si>
-    <t>BKTEST000068</t>
-  </si>
-  <si>
-    <t>BKTEST000078</t>
-  </si>
-  <si>
-    <t>BKTEST000088</t>
-  </si>
-  <si>
-    <t>BKTEST000098</t>
-  </si>
-  <si>
-    <t>BKTEST000108</t>
-  </si>
-  <si>
-    <t>BKTEST000118</t>
-  </si>
-  <si>
-    <t>BKTEST000128</t>
-  </si>
-  <si>
-    <t>BKTEST000138</t>
-  </si>
-  <si>
-    <t>BKTEST000148</t>
-  </si>
-  <si>
-    <t>BKTEST000158</t>
-  </si>
-  <si>
-    <t>BKTEST000168</t>
-  </si>
-  <si>
-    <t>BLTEST0030</t>
-  </si>
-  <si>
-    <t>BLTEST0040</t>
-  </si>
-  <si>
-    <t>BLTEST0050</t>
-  </si>
-  <si>
-    <t>BLTEST0060</t>
-  </si>
-  <si>
-    <t>BLTEST0070</t>
-  </si>
-  <si>
-    <t>BLTEST0080</t>
-  </si>
-  <si>
-    <t>BLTEST0090</t>
-  </si>
-  <si>
-    <t>BLTEST0100</t>
-  </si>
-  <si>
-    <t>BLTEST0110</t>
-  </si>
-  <si>
-    <t>BLTEST0120</t>
-  </si>
-  <si>
-    <t>BLTEST0130</t>
-  </si>
-  <si>
-    <t>BLTEST0140</t>
-  </si>
-  <si>
-    <t>BLTEST0150</t>
-  </si>
-  <si>
-    <t>BLTEST0160</t>
-  </si>
-  <si>
-    <t>BLTEST0170</t>
-  </si>
-  <si>
-    <t>BLTEST0180</t>
-  </si>
-  <si>
-    <t>BLTEST0190</t>
   </si>
 </sst>
 </file>
@@ -647,7 +482,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,10 +505,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -687,326 +522,156 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1014,5 +679,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>